--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_infografia.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_infografia.xlsx
@@ -15821,9 +15821,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D45A1CA-DFCF-44D2-B4B6-5C38E3DFBD2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E11843-3AE3-44CD-AAD3-5F546E8C13A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB0C544-A696-45D7-ADB4-65291E1B01BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F919E4-AD15-47B3-98FA-DD7C9464E49C}"/>
 </file>